--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_39.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_39.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,268 +488,290 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_197</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['C#:7', 'F#:min', 'F#:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(3.7, 7.5)]</t>
+          <t>[('0:01:56.700000', '0:02:02.320000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(84.92, 105.44)]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(83.42, 105.16)]</t>
+          <t>[('0:01:34.400000', '0:01:44.480000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:00:35.220000', '0:00:42.420000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_86</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_138</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.07542426147077311</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.88, 11.46)]</t>
+          <t>[['C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:00:00.360000', '0:00:07.140000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_72</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_82</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1277173913043478</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_168</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
+          <t>[['C#:maj/F', 'G#:7', 'C#:maj', 'A#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(32.074829, 37.705668)]</t>
+          <t>[['D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(44.82, 47.28)]</t>
+          <t>[('0:00:35.220000', '0:00:42.420000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5dpRJkvY8oWMQmQbEQTXhO</t>
+          <t>[('0:01:50.320000', '0:02:02.840000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_101</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.4375</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['B:min', 'F#:(3,5,b7,b9)/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(41.32, 48.94)]</t>
+          <t>[['E:min', 'B:(3,5,b7,b9)', 'E:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[('0:00:30.800000', '0:00:45.300000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:01:35.260000', '0:01:53.640000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_140</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1064102564102564</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_50</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_61</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05796064400715564</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(0.465952, 5.272756)]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(18.26, 24.82)]</t>
+          <t>[('0:00:01.440000', '0:00:06.840000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+          <t>[('0:00:42.440000', '0:00:44.360000')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -753,450 +780,406 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_109</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_208</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.1334681496461072</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.54, 25.94), (52.42, 61.26), (1.54, 6.88)]</t>
+          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(35.82, 37.76), (35.6, 37.24), (8.46, 13.46)]</t>
+          <t>[('0:00:03.820000', '0:00:08.620000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:11.500000', '0:00:28.960000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
           <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(2.56, 4.8), (0.3, 3.34)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(81.1, 87.58), (27.46, 36.02)]</t>
+          <t>[('0:01:04.220000', '0:01:10.300000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.4540540540540541</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06), (0.34, 4.84)]</t>
+          <t>[['Bb', 'Eb', 'Bb', 'Eb']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(84.0, 90.84), (13.74, 22.56)]</t>
+          <t>[('0:02:12.300000', '0:02:17.480000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.761383', '0:01:11.001383')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_1</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_35</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1963636363636364</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(7.02, 13.54)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.851927, 16.810929)]</t>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_244</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1536231884057971</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C', 'F', 'F']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_51</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B', 'E', 'E']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(54.681315, 62.15814)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(13.334625, 18.779705)]</t>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:3BQHpFgAp4l80e1XslIjNI</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
+          <t>[('0:00:14.880000', '0:01:39.500000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_74</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>isophonics_266</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.3690476190476191</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
+          <t>[['E', 'E', 'G', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(14.52, 59.04)]</t>
+          <t>[['A', 'A/b7', 'C', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(17.38, 61.66)]</t>
+          <t>[('0:00:15.089433', '0:00:40.910022')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:21.788299', '0:00:28.963265')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2461538461538462</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>isophonics_236</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_83</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0.3535714285714285</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>[['G:maj', 'D:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(117.68, 119.48)]</t>
+          <t>[['G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(74.7, 94.12)]</t>
+          <t>[('0:00:11.820000', '0:00:17.361000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:02:14.840000', '0:02:17.480000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_62</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
+          <t>isophonics_58</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
+          <t>[['C:7', 'F', 'C']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(40.12, 47.88)]</t>
+          <t>[['G:7', 'C:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(7.7, 12.06)]</t>
+          <t>[('0:00:39.386636', '0:00:52.146870')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:05.500000', '0:00:10.400000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
+          <t>schubert-winterreise_106</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_62</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>1</v>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'A#:7', 'D#:maj/A#', 'D#:min/A#', 'A#:maj', 'A#:min', 'F:maj', 'A#:min', 'A#:7', 'D#:min/A#', 'F:7/A#', 'A#:min', 'D#:min/A#', 'A#:min', 'C#:maj/G#', 'D#:min/F#', 'C#:maj/F', 'G#:7', 'C#:maj', 'A#:min', 'A#:7/G#', 'D#:maj/G', 'G#:(3,5,b7,b9)/F#', 'C#:maj/F', 'F:(3,5,b7,b9)/D#', 'F#:(3,5)', 'A#:min/F', 'F:7', 'F#:(3,5)', 'A#:min/F', 'F:7', 'A#:min', 'A#:7', 'D#:maj', 'D#:min', 'A#:maj', 'A#:min/A#', 'F:maj', 'A#:min']]</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:min', 'B:7', 'E:maj/B', 'E:min/B', 'B:maj', 'B:min', 'F#:maj', 'B:min', 'B:7', 'E:min/B', 'F#:7/B', 'B:min', 'E:min/B', 'B:min', 'D:maj/A', 'E:min/G', 'D:maj/F#', 'A:7', 'D:maj', 'B:min', 'B:7/A', 'E:maj/G#', 'A:(3,5,b7,b9)/G', 'D:maj/F#', 'F#:(3,5,b7,b9)/E', 'G:(3,5)', 'B:min/F#', 'F#:7', 'G:(3,5)', 'B:min/F#', 'F#:7', 'B:min', 'B:7', 'E:maj', 'E:min', 'B:maj', 'B:min/B', 'F#:maj', 'B:min']]</t>
+          <t>[['A:maj', 'E:7/G#', 'A:7/G', 'F#:7', 'G:maj', 'C:min/G', 'F#:dim7', 'G:7', 'C:maj/G', 'G:7', 'C:maj/G', 'C#:(b5,b7)/G', 'B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(0.78, 98.82)]</t>
+          <t>[['G:maj', 'D:7/F#', 'G:7/F', 'E:7', 'F:maj', 'A#:min/F', 'E:dim7', 'F:7', 'A#:maj/F', 'F:7', 'A#:maj/F', 'B:(b5,b7)/F', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.82, 107.92)]</t>
+          <t>[('0:01:26.980000', '0:01:51.200000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:01:24.920000', '0:01:45.440000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_118</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(14.2, 18.8)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(5.02, 8.8)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
         </is>
       </c>
     </row>
